--- a/Sprint-Backlog-Tuan03.xlsx
+++ b/Sprint-Backlog-Tuan03.xlsx
@@ -37,7 +37,7 @@
     <t>Làm website nêu quy trình cũ, giải pháp và sản phẩm. Làm poster</t>
   </si>
   <si>
-    <t xml:space="preserve">Task 1: Trang chủ                                                         </t>
+    <t xml:space="preserve">Task 1: Trang chủ +  Giới thiệu                                 </t>
   </si>
   <si>
     <t>Ny</t>
@@ -52,7 +52,7 @@
     <t>https://github.com/nmcntt2-cntn2016/project1-DoTa</t>
   </si>
   <si>
-    <t>Task 2: Quy trình cũ - Quy trình mới - Giải pháp</t>
+    <t>Task 2: Quy trình cũ - Quy trình mới</t>
   </si>
   <si>
     <t>Hiếu</t>
@@ -73,7 +73,7 @@
     <t>https://github.com/nmcntt2-cntn2016/project3-DoTa</t>
   </si>
   <si>
-    <t>Task 4: Liên hệ</t>
+    <t>Task 4: Liên hệ + Giải pháp kĩ thuật</t>
   </si>
   <si>
     <t>Nữ</t>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -128,6 +128,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -137,7 +167,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -146,36 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,36 +184,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,21 +207,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -249,16 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,181 +279,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,15 +464,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,7 +486,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +538,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -567,15 +567,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,128 +585,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>

--- a/Sprint-Backlog-Tuan03.xlsx
+++ b/Sprint-Backlog-Tuan03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -34,16 +34,16 @@
     <t xml:space="preserve">Sprint Review and results </t>
   </si>
   <si>
-    <t>Làm website nêu quy trình cũ, giải pháp và sản phẩm. Làm poster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 1: Trang chủ +  Giới thiệu                                 </t>
+    <t>Làm website nêu quy trình cũ, giải pháp và sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 1: Trang chủ                                                         </t>
   </si>
   <si>
     <t>Ny</t>
   </si>
   <si>
-    <t>Done 100%</t>
+    <t>Done 50%</t>
   </si>
   <si>
     <t>6 days</t>
@@ -52,7 +52,7 @@
     <t>https://github.com/nmcntt2-cntn2016/project1-DoTa</t>
   </si>
   <si>
-    <t>Task 2: Quy trình cũ - Quy trình mới</t>
+    <t>Task 2: Quy trình cũ - Quy trình mới - Giải pháp</t>
   </si>
   <si>
     <t>Hiếu</t>
@@ -61,19 +61,16 @@
     <t>https://github.com/nmcntt2-cntn2016/project2-DoTa</t>
   </si>
   <si>
-    <t>Task 3: Sản phẩm. Poster</t>
+    <t>Task 3: Sản phẩm</t>
   </si>
   <si>
     <t>Quốc</t>
   </si>
   <si>
-    <t>Website: done 100%. Poster: Doing</t>
-  </si>
-  <si>
     <t>https://github.com/nmcntt2-cntn2016/project3-DoTa</t>
   </si>
   <si>
-    <t>Task 4: Liên hệ + Giải pháp kĩ thuật</t>
+    <t>Task 4: Liên hệ</t>
   </si>
   <si>
     <t>Nữ</t>
@@ -88,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -128,9 +125,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,20 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -166,33 +155,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,59 +223,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +270,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,54 +426,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,114 +451,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,41 +464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,26 +488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,18 +522,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,128 +582,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,7 +1064,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1075,7 +1072,6 @@
     <col min="1" max="1" width="30.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="35.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="16.4285714285714" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3"/>
     <col min="7" max="7" width="45.8571428571429" style="3" customWidth="1"/>
@@ -1151,23 +1147,23 @@
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9"/>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1176,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="13"/>
     </row>
